--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rgma-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rgma-Neo1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.71602</v>
+        <v>2.116361666666667</v>
       </c>
       <c r="H2">
-        <v>5.14806</v>
+        <v>6.349085000000001</v>
       </c>
       <c r="I2">
-        <v>0.06034608498376332</v>
+        <v>0.0680277323997769</v>
       </c>
       <c r="J2">
-        <v>0.06034608498376331</v>
+        <v>0.06802773239977691</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N2">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O2">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P2">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q2">
-        <v>7.9996133345</v>
+        <v>8.230929103113889</v>
       </c>
       <c r="R2">
-        <v>71.99652001050001</v>
+        <v>74.078361928025</v>
       </c>
       <c r="S2">
-        <v>0.003115326463471678</v>
+        <v>0.002939330430804467</v>
       </c>
       <c r="T2">
-        <v>0.003115326463471678</v>
+        <v>0.002939330430804468</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.71602</v>
+        <v>2.116361666666667</v>
       </c>
       <c r="H3">
-        <v>5.14806</v>
+        <v>6.349085000000001</v>
       </c>
       <c r="I3">
-        <v>0.06034608498376332</v>
+        <v>0.0680277323997769</v>
       </c>
       <c r="J3">
-        <v>0.06034608498376331</v>
+        <v>0.06802773239977691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>233.448043</v>
       </c>
       <c r="O3">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P3">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q3">
-        <v>133.5338369162867</v>
+        <v>164.6868297878505</v>
       </c>
       <c r="R3">
-        <v>1201.80453224658</v>
+        <v>1482.181468090655</v>
       </c>
       <c r="S3">
-        <v>0.05200270044554853</v>
+        <v>0.05881098042322026</v>
       </c>
       <c r="T3">
-        <v>0.05200270044554853</v>
+        <v>0.05881098042322026</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.71602</v>
+        <v>2.116361666666667</v>
       </c>
       <c r="H4">
-        <v>5.14806</v>
+        <v>6.349085000000001</v>
       </c>
       <c r="I4">
-        <v>0.06034608498376332</v>
+        <v>0.0680277323997769</v>
       </c>
       <c r="J4">
-        <v>0.06034608498376331</v>
+        <v>0.06802773239977691</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N4">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O4">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P4">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q4">
-        <v>0.9009019199</v>
+        <v>0.7613208987116667</v>
       </c>
       <c r="R4">
-        <v>8.1081172791</v>
+        <v>6.851888088405001</v>
       </c>
       <c r="S4">
-        <v>0.0003508424063389226</v>
+        <v>0.0002718737650581905</v>
       </c>
       <c r="T4">
-        <v>0.0003508424063389226</v>
+        <v>0.0002718737650581905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.71602</v>
+        <v>2.116361666666667</v>
       </c>
       <c r="H5">
-        <v>5.14806</v>
+        <v>6.349085000000001</v>
       </c>
       <c r="I5">
-        <v>0.06034608498376332</v>
+        <v>0.0680277323997769</v>
       </c>
       <c r="J5">
-        <v>0.06034608498376331</v>
+        <v>0.06802773239977691</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N5">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O5">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P5">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q5">
-        <v>11.67621650085333</v>
+        <v>16.045972680565</v>
       </c>
       <c r="R5">
-        <v>105.08594850768</v>
+        <v>144.413754125085</v>
       </c>
       <c r="S5">
-        <v>0.004547123059243042</v>
+        <v>0.005730144823383159</v>
       </c>
       <c r="T5">
-        <v>0.004547123059243041</v>
+        <v>0.00573014482338316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.71602</v>
+        <v>2.116361666666667</v>
       </c>
       <c r="H6">
-        <v>5.14806</v>
+        <v>6.349085000000001</v>
       </c>
       <c r="I6">
-        <v>0.06034608498376332</v>
+        <v>0.0680277323997769</v>
       </c>
       <c r="J6">
-        <v>0.06034608498376331</v>
+        <v>0.06802773239977691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N6">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O6">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P6">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q6">
-        <v>0.8476200709066668</v>
+        <v>0.7712036022411111</v>
       </c>
       <c r="R6">
-        <v>7.628580638160001</v>
+        <v>6.94083242017</v>
       </c>
       <c r="S6">
-        <v>0.0003300926091611309</v>
+        <v>0.0002754029573108275</v>
       </c>
       <c r="T6">
-        <v>0.0003300926091611309</v>
+        <v>0.0002754029573108276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>54.328318</v>
       </c>
       <c r="I7">
-        <v>0.6368420910115495</v>
+        <v>0.5821047093611099</v>
       </c>
       <c r="J7">
-        <v>0.6368420910115495</v>
+        <v>0.5821047093611099</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N7">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O7">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P7">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q7">
-        <v>84.42122607618332</v>
+        <v>70.43102017840776</v>
       </c>
       <c r="R7">
-        <v>759.7910346856499</v>
+        <v>633.8791816056699</v>
       </c>
       <c r="S7">
-        <v>0.03287654898763898</v>
+        <v>0.02515147904805529</v>
       </c>
       <c r="T7">
-        <v>0.03287654898763898</v>
+        <v>0.02515147904805529</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>54.328318</v>
       </c>
       <c r="I8">
-        <v>0.6368420910115495</v>
+        <v>0.5821047093611099</v>
       </c>
       <c r="J8">
-        <v>0.6368420910115495</v>
+        <v>0.5821047093611099</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>233.448043</v>
       </c>
       <c r="O8">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P8">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q8">
         <v>1409.204390731297</v>
@@ -948,10 +948,10 @@
         <v>12682.83951658167</v>
       </c>
       <c r="S8">
-        <v>0.5487929912752575</v>
+        <v>0.5032381274348169</v>
       </c>
       <c r="T8">
-        <v>0.5487929912752576</v>
+        <v>0.5032381274348169</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>54.328318</v>
       </c>
       <c r="I9">
-        <v>0.6368420910115495</v>
+        <v>0.5821047093611099</v>
       </c>
       <c r="J9">
-        <v>0.6368420910115495</v>
+        <v>0.5821047093611099</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N9">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O9">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P9">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q9">
-        <v>9.507365102803332</v>
+        <v>6.514526720819333</v>
       </c>
       <c r="R9">
-        <v>85.56628592522999</v>
+        <v>58.630740487374</v>
       </c>
       <c r="S9">
-        <v>0.003702497216323469</v>
+        <v>0.00232638945043871</v>
       </c>
       <c r="T9">
-        <v>0.00370249721632347</v>
+        <v>0.00232638945043871</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>54.328318</v>
       </c>
       <c r="I10">
-        <v>0.6368420910115495</v>
+        <v>0.5821047093611099</v>
       </c>
       <c r="J10">
-        <v>0.6368420910115495</v>
+        <v>0.5821047093611099</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N10">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O10">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P10">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q10">
-        <v>123.2210197812782</v>
+        <v>137.303360469902</v>
       </c>
       <c r="R10">
-        <v>1108.989178031504</v>
+        <v>1235.730244229118</v>
       </c>
       <c r="S10">
-        <v>0.04798653231463673</v>
+        <v>0.04903212512524468</v>
       </c>
       <c r="T10">
-        <v>0.04798653231463673</v>
+        <v>0.04903212512524468</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>54.328318</v>
       </c>
       <c r="I11">
-        <v>0.6368420910115495</v>
+        <v>0.5821047093611099</v>
       </c>
       <c r="J11">
-        <v>0.6368420910115495</v>
+        <v>0.5821047093611099</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N11">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O11">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P11">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q11">
-        <v>8.945073047983112</v>
+        <v>6.599091766026221</v>
       </c>
       <c r="R11">
-        <v>80.50565743184801</v>
+        <v>59.39182589423599</v>
       </c>
       <c r="S11">
-        <v>0.003483521217692807</v>
+        <v>0.002356588302554315</v>
       </c>
       <c r="T11">
-        <v>0.003483521217692807</v>
+        <v>0.002356588302554315</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3579073333333334</v>
+        <v>0.291702</v>
       </c>
       <c r="H12">
-        <v>1.073722</v>
+        <v>0.8751059999999999</v>
       </c>
       <c r="I12">
-        <v>0.01258627892078498</v>
+        <v>0.009376386800529393</v>
       </c>
       <c r="J12">
-        <v>0.01258627892078498</v>
+        <v>0.009376386800529393</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N12">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O12">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P12">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q12">
-        <v>1.668465563483333</v>
+        <v>1.13448401521</v>
       </c>
       <c r="R12">
-        <v>15.01619007135</v>
+        <v>10.21035613689</v>
       </c>
       <c r="S12">
-        <v>0.0006497582703021598</v>
+        <v>0.0004051332902267924</v>
       </c>
       <c r="T12">
-        <v>0.0006497582703021599</v>
+        <v>0.0004051332902267924</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3579073333333334</v>
+        <v>0.291702</v>
       </c>
       <c r="H13">
-        <v>1.073722</v>
+        <v>0.8751059999999999</v>
       </c>
       <c r="I13">
-        <v>0.01258627892078498</v>
+        <v>0.009376386800529393</v>
       </c>
       <c r="J13">
-        <v>0.01258627892078498</v>
+        <v>0.009376386800529393</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>233.448043</v>
       </c>
       <c r="O13">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P13">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q13">
-        <v>27.85092218067178</v>
+        <v>22.69908701306199</v>
       </c>
       <c r="R13">
-        <v>250.658299626046</v>
+        <v>204.291783117558</v>
       </c>
       <c r="S13">
-        <v>0.01084611358993393</v>
+        <v>0.008106025015296312</v>
       </c>
       <c r="T13">
-        <v>0.01084611358993393</v>
+        <v>0.00810602501529631</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3579073333333334</v>
+        <v>0.291702</v>
       </c>
       <c r="H14">
-        <v>1.073722</v>
+        <v>0.8751059999999999</v>
       </c>
       <c r="I14">
-        <v>0.01258627892078498</v>
+        <v>0.009376386800529393</v>
       </c>
       <c r="J14">
-        <v>0.01258627892078498</v>
+        <v>0.009376386800529393</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N14">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O14">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P14">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q14">
-        <v>0.1878995604633333</v>
+        <v>0.104934252162</v>
       </c>
       <c r="R14">
-        <v>1.69109604417</v>
+        <v>0.944408269458</v>
       </c>
       <c r="S14">
-        <v>7.317459590972922E-05</v>
+        <v>3.74728583795953E-05</v>
       </c>
       <c r="T14">
-        <v>7.317459590972922E-05</v>
+        <v>3.74728583795953E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3579073333333334</v>
+        <v>0.291702</v>
       </c>
       <c r="H15">
-        <v>1.073722</v>
+        <v>0.8751059999999999</v>
       </c>
       <c r="I15">
-        <v>0.01258627892078498</v>
+        <v>0.009376386800529393</v>
       </c>
       <c r="J15">
-        <v>0.01258627892078498</v>
+        <v>0.009376386800529393</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N15">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O15">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P15">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q15">
-        <v>2.435288348179556</v>
+        <v>2.211645767634</v>
       </c>
       <c r="R15">
-        <v>21.917595133616</v>
+        <v>19.904811908706</v>
       </c>
       <c r="S15">
-        <v>0.0009483856181584047</v>
+        <v>0.0007897963432229278</v>
       </c>
       <c r="T15">
-        <v>0.0009483856181584047</v>
+        <v>0.0007897963432229278</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3579073333333334</v>
+        <v>0.291702</v>
       </c>
       <c r="H16">
-        <v>1.073722</v>
+        <v>0.8751059999999999</v>
       </c>
       <c r="I16">
-        <v>0.01258627892078498</v>
+        <v>0.009376386800529393</v>
       </c>
       <c r="J16">
-        <v>0.01258627892078498</v>
+        <v>0.009376386800529393</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N16">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O16">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P16">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q16">
-        <v>0.1767866570657778</v>
+        <v>0.106296403268</v>
       </c>
       <c r="R16">
-        <v>1.591079913592</v>
+        <v>0.9566676294119999</v>
       </c>
       <c r="S16">
-        <v>6.884684648075348E-05</v>
+        <v>3.79592934037659E-05</v>
       </c>
       <c r="T16">
-        <v>6.884684648075348E-05</v>
+        <v>3.79592934037659E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.992016</v>
+        <v>10.24419333333333</v>
       </c>
       <c r="H17">
-        <v>23.976048</v>
+        <v>30.73258</v>
       </c>
       <c r="I17">
-        <v>0.2810496828286361</v>
+        <v>0.3292864606781506</v>
       </c>
       <c r="J17">
-        <v>0.2810496828286361</v>
+        <v>0.3292864606781506</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N17">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O17">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P17">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q17">
-        <v>37.25658078759999</v>
+        <v>39.84159719641111</v>
       </c>
       <c r="R17">
-        <v>335.3092270884</v>
+        <v>358.5743747677</v>
       </c>
       <c r="S17">
-        <v>0.01450900277461164</v>
+        <v>0.01422775212666593</v>
       </c>
       <c r="T17">
-        <v>0.01450900277461164</v>
+        <v>0.01422775212666593</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.992016</v>
+        <v>10.24419333333333</v>
       </c>
       <c r="H18">
-        <v>23.976048</v>
+        <v>30.73258</v>
       </c>
       <c r="I18">
-        <v>0.2810496828286361</v>
+        <v>0.3292864606781506</v>
       </c>
       <c r="J18">
-        <v>0.2810496828286361</v>
+        <v>0.3292864606781506</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>233.448043</v>
       </c>
       <c r="O18">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P18">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q18">
-        <v>621.9068316082293</v>
+        <v>797.1622952601044</v>
       </c>
       <c r="R18">
-        <v>5597.161484474063</v>
+        <v>7174.46065734094</v>
       </c>
       <c r="S18">
-        <v>0.2421920572044795</v>
+        <v>0.2846730136287434</v>
       </c>
       <c r="T18">
-        <v>0.2421920572044796</v>
+        <v>0.2846730136287434</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.992016</v>
+        <v>10.24419333333333</v>
       </c>
       <c r="H19">
-        <v>23.976048</v>
+        <v>30.73258</v>
       </c>
       <c r="I19">
-        <v>0.2810496828286361</v>
+        <v>0.3292864606781506</v>
       </c>
       <c r="J19">
-        <v>0.2810496828286361</v>
+        <v>0.3292864606781506</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N19">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O19">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P19">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q19">
-        <v>4.195768439919999</v>
+        <v>3.685153911993333</v>
       </c>
       <c r="R19">
-        <v>37.76191595928</v>
+        <v>33.16638520794</v>
       </c>
       <c r="S19">
-        <v>0.001633977532277695</v>
+        <v>0.001315997853950931</v>
       </c>
       <c r="T19">
-        <v>0.001633977532277695</v>
+        <v>0.001315997853950931</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.992016</v>
+        <v>10.24419333333333</v>
       </c>
       <c r="H20">
-        <v>23.976048</v>
+        <v>30.73258</v>
       </c>
       <c r="I20">
-        <v>0.2810496828286361</v>
+        <v>0.3292864606781506</v>
       </c>
       <c r="J20">
-        <v>0.2810496828286361</v>
+        <v>0.3292864606781506</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N20">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O20">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P20">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q20">
-        <v>54.37961625988266</v>
+        <v>77.67011137562</v>
       </c>
       <c r="R20">
-        <v>489.4165463389439</v>
+        <v>699.03100238058</v>
       </c>
       <c r="S20">
-        <v>0.02117730576767132</v>
+        <v>0.027736616251981</v>
       </c>
       <c r="T20">
-        <v>0.02117730576767132</v>
+        <v>0.02773661625198101</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.992016</v>
+        <v>10.24419333333333</v>
       </c>
       <c r="H21">
-        <v>23.976048</v>
+        <v>30.73258</v>
       </c>
       <c r="I21">
-        <v>0.2810496828286361</v>
+        <v>0.3292864606781506</v>
       </c>
       <c r="J21">
-        <v>0.2810496828286361</v>
+        <v>0.3292864606781506</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N21">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O21">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P21">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q21">
-        <v>3.947619007125334</v>
+        <v>3.732990880128889</v>
       </c>
       <c r="R21">
-        <v>35.528571064128</v>
+        <v>33.59691792116</v>
       </c>
       <c r="S21">
-        <v>0.00153733954959587</v>
+        <v>0.001333080816809287</v>
       </c>
       <c r="T21">
-        <v>0.00153733954959587</v>
+        <v>0.001333080816809287</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2609276666666667</v>
+        <v>0.3485816666666666</v>
       </c>
       <c r="H22">
-        <v>0.782783</v>
+        <v>1.045745</v>
       </c>
       <c r="I22">
-        <v>0.0091758622552661</v>
+        <v>0.01120471076043315</v>
       </c>
       <c r="J22">
-        <v>0.009175862255266098</v>
+        <v>0.01120471076043315</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.661725</v>
+        <v>3.889188333333333</v>
       </c>
       <c r="N22">
-        <v>13.985175</v>
+        <v>11.667565</v>
       </c>
       <c r="O22">
-        <v>0.05162433427636418</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="P22">
-        <v>0.05162433427636419</v>
+        <v>0.04320782608967438</v>
       </c>
       <c r="Q22">
-        <v>1.216373026891667</v>
+        <v>1.355699751213889</v>
       </c>
       <c r="R22">
-        <v>10.947357242025</v>
+        <v>12.201297760925</v>
       </c>
       <c r="S22">
-        <v>0.0004736977803397301</v>
+        <v>0.0004841311939218986</v>
       </c>
       <c r="T22">
-        <v>0.00047369778033973</v>
+        <v>0.0004841311939218986</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2609276666666667</v>
+        <v>0.3485816666666666</v>
       </c>
       <c r="H23">
-        <v>0.782783</v>
+        <v>1.045745</v>
       </c>
       <c r="I23">
-        <v>0.0091758622552661</v>
+        <v>0.01120471076043315</v>
       </c>
       <c r="J23">
-        <v>0.009175862255266098</v>
+        <v>0.01120471076043315</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>233.448043</v>
       </c>
       <c r="O23">
-        <v>0.8617410799646796</v>
+        <v>0.86451478461177</v>
       </c>
       <c r="P23">
-        <v>0.8617410799646797</v>
+        <v>0.8645147846117699</v>
       </c>
       <c r="Q23">
-        <v>20.30435104929655</v>
+        <v>27.12523596967055</v>
       </c>
       <c r="R23">
-        <v>182.739159443669</v>
+        <v>244.127123727035</v>
       </c>
       <c r="S23">
-        <v>0.007907217449460149</v>
+        <v>0.009686638109693044</v>
       </c>
       <c r="T23">
-        <v>0.007907217449460149</v>
+        <v>0.009686638109693044</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2609276666666667</v>
+        <v>0.3485816666666666</v>
       </c>
       <c r="H24">
-        <v>0.782783</v>
+        <v>1.045745</v>
       </c>
       <c r="I24">
-        <v>0.0091758622552661</v>
+        <v>0.01120471076043315</v>
       </c>
       <c r="J24">
-        <v>0.009175862255266098</v>
+        <v>0.01120471076043315</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.524995</v>
+        <v>0.359731</v>
       </c>
       <c r="N24">
-        <v>1.574985</v>
+        <v>1.079193</v>
       </c>
       <c r="O24">
-        <v>0.005813838734249621</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="P24">
-        <v>0.005813838734249622</v>
+        <v>0.003996513707975397</v>
       </c>
       <c r="Q24">
-        <v>0.1369857203616667</v>
+        <v>0.1253956315316667</v>
       </c>
       <c r="R24">
-        <v>1.232871483255</v>
+        <v>1.128560683785</v>
       </c>
       <c r="S24">
-        <v>5.334698339980514E-05</v>
+        <v>4.477978014797051E-05</v>
       </c>
       <c r="T24">
-        <v>5.334698339980513E-05</v>
+        <v>4.477978014797052E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2609276666666667</v>
+        <v>0.3485816666666666</v>
       </c>
       <c r="H25">
-        <v>0.782783</v>
+        <v>1.045745</v>
       </c>
       <c r="I25">
-        <v>0.0091758622552661</v>
+        <v>0.01120471076043315</v>
       </c>
       <c r="J25">
-        <v>0.009175862255266098</v>
+        <v>0.01120471076043315</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.804242666666666</v>
+        <v>7.581867</v>
       </c>
       <c r="N25">
-        <v>20.412728</v>
+        <v>22.745601</v>
       </c>
       <c r="O25">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="P25">
-        <v>0.07535075490757169</v>
+        <v>0.08423248315420773</v>
       </c>
       <c r="Q25">
-        <v>1.775415162447111</v>
+        <v>2.642899835305</v>
       </c>
       <c r="R25">
-        <v>15.978736462024</v>
+        <v>23.786098517745</v>
       </c>
       <c r="S25">
-        <v>0.0006914081478621939</v>
+        <v>0.000943800610375955</v>
       </c>
       <c r="T25">
-        <v>0.0006914081478621938</v>
+        <v>0.0009438006103759552</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2609276666666667</v>
+        <v>0.3485816666666666</v>
       </c>
       <c r="H26">
-        <v>0.782783</v>
+        <v>1.045745</v>
       </c>
       <c r="I26">
-        <v>0.0091758622552661</v>
+        <v>0.01120471076043315</v>
       </c>
       <c r="J26">
-        <v>0.009175862255266098</v>
+        <v>0.01120471076043315</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4939453333333334</v>
+        <v>0.3644006666666667</v>
       </c>
       <c r="N26">
-        <v>1.481836</v>
+        <v>1.093202</v>
       </c>
       <c r="O26">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="P26">
-        <v>0.005469992117134781</v>
+        <v>0.004048392436372474</v>
       </c>
       <c r="Q26">
-        <v>0.1288840032875556</v>
+        <v>0.1270233917211111</v>
       </c>
       <c r="R26">
-        <v>1.159956029588</v>
+        <v>1.14321052549</v>
       </c>
       <c r="S26">
-        <v>5.019189420422014E-05</v>
+        <v>4.536106629427882E-05</v>
       </c>
       <c r="T26">
-        <v>5.019189420422013E-05</v>
+        <v>4.536106629427883E-05</v>
       </c>
     </row>
   </sheetData>
